--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\seleniumByPawanKumar\SBILProductJourney\src\test\resources\"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Online Plans</t>
   </si>
@@ -71,12 +71,16 @@
   </si>
   <si>
     <t>pcode</t>
+  </si>
+  <si>
+    <t>TEst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,7 +423,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.44140625"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -493,7 +497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5280465-3EE7-4322-B1DF-B0BB6DAF2D7C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -501,8 +505,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -526,6 +530,14 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D2" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="s" s="0">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\seleniumByPawanKumar\SBILProductJourney\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\seleniumByPawanKumar\SBILProductJourney\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174F1708-F660-4CD3-9207-0FB7B7112A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D93EA1-8136-4F42-A0F3-E79E11F085CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Online Plans</t>
   </si>
@@ -58,29 +58,67 @@
     <t>SBI Life – Smart Lifetime Saver</t>
   </si>
   <si>
-    <t>111N136V01</t>
-  </si>
-  <si>
     <t>2Z</t>
   </si>
   <si>
-    <t>Product_Name</t>
-  </si>
-  <si>
-    <t>UIN</t>
-  </si>
-  <si>
-    <t>pcode</t>
-  </si>
-  <si>
-    <t>TEst</t>
+    <t>Plan Selection</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>111N136V02</t>
+  </si>
+  <si>
+    <t>UIN No</t>
+  </si>
+  <si>
+    <t>Product Code</t>
+  </si>
+  <si>
+    <t>Om Kangane</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>16/04/1998</t>
+  </si>
+  <si>
+    <t>Staff Disocunt</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>Premium Amount</t>
+  </si>
+  <si>
+    <t>HalfYearly</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>75000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -127,14 +165,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,6 +468,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5280465-3EE7-4322-B1DF-B0BB6DAF2D7C}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F9C34C-A172-4633-8D0A-7118A686A962}">
   <dimension ref="B3:C10"/>
   <sheetViews>
@@ -423,7 +575,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.44140625"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -493,53 +645,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5280465-3EE7-4322-B1DF-B0BB6DAF2D7C}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.109375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.44140625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="D4" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>